--- a/Pre-Entregas/Hardware/Mantenimiento_TPI.xlsx
+++ b/Pre-Entregas/Hardware/Mantenimiento_TPI.xlsx
@@ -1528,7 +1528,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">TODAY()</f>
-        <v>45538</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="F5" s="15">
         <f ca="1" t="shared" ref="F5:F11" si="0">IF(D5="","",IF(E5="MENSUAL",EDATE(D5,1)-TODAY(),IF(E5="ANUAL",DATE(YEAR(D5)+1,MONTH(D5),DAY(D5))-TODAY(),IF(E5="SEMANAL",D5+7-TODAY(),IF(E5="TRIMESTRAL",EDATE(D5,3)-TODAY(),IF(E5="SEMESTRAL",EDATE(D5,6)-TODAY(),""))))))</f>
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" ref="G5:G18" si="1">IF(D5="","",IF(E5="MENSUAL",EDATE(D5,1),IF(E5="ANUAL",DATE(YEAR(D5)+1,MONTH(D5),DAY(D5)),IF(E5="SEMANAL",D5+7,IF(E5="TRIMESTRAL",EDATE(D5,3),IF(E5="SEMESTRAL",EDATE(D5,6),""))))))</f>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F6" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="1"/>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F7" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" si="1"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F8" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G8" s="14">
         <f t="shared" si="1"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="F9" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="1"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="F10" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="1"/>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F11" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="1"/>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="F12" s="8">
         <f ca="1" t="shared" ref="F12:F18" si="2">IF(D12="","",IF(E12="MENSUAL",EDATE(D12,1)-TODAY(),IF(E12="ANUAL",DATE(YEAR(D12)+1,MONTH(D12),DAY(D12))-TODAY(),IF(E12="SEMANAL",D12+7-TODAY(),IF(E12="SEMESTRAL",EDATE(D12,6)-TODAY(),"")))))</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="1"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F13" s="8">
         <f ca="1" t="shared" si="2"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="1"/>
@@ -1786,11 +1786,11 @@
         <v>15</v>
       </c>
       <c r="F14" s="8">
-        <f ca="1">IF(D14="","",IF(E14="MENSUAL",EDATE(D14,1)-TODAY(),IF(E14="ANUAL",DATE(YEAR(D14)+1,MONTH(D14),DAY(D14))-TODAY(),IF(E14="SEMANAL",D14+7-TODAY(),IF(E14="SEMESTRAL",EDATE(D14,6)-TODAY(),"")))))</f>
-        <v>176</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>167</v>
       </c>
       <c r="G14" s="14">
-        <f>IF(D14="","",IF(E14="MENSUAL",EDATE(D14,1),IF(E14="ANUAL",DATE(YEAR(D14)+1,MONTH(D14),DAY(D14)),IF(E14="SEMANAL",D14+7,IF(E14="TRIMESTRAL",EDATE(D14,3),IF(E14="SEMESTRAL",EDATE(D14,6),""))))))</f>
+        <f t="shared" si="1"/>
         <v>45714</v>
       </c>
       <c r="H14" s="19"/>
